--- a/data/forum_list.xlsx
+++ b/data/forum_list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disto\gitrepos\steam_review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6670A7AD-AD98-46ED-B787-51A24C3D69DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7590" xr2:uid="{D36A37BE-6A9A-41EE-B460-F03E58B9FE42}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
   <si>
     <t>ゲーム名</t>
     <rPh sb="3" eb="4">
@@ -416,9 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ま～るい地球が四角くなった!? デジボク地球防衛軍 EARTH DEFENSE FORCE: WORLD BROTHERS</t>
-  </si>
-  <si>
     <t>https://store.steampowered.com/app/1497950/__EARTH_DEFENSE_FORCE_WORLD_BROTHERS/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,13 +615,71 @@
   </si>
   <si>
     <t>Satisfactory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#review</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ま～るい地球が四角くなった!? デジボク地球防衛軍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクレイピング容易性</t>
+    <rPh sb="7" eb="10">
+      <t>ヨウイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlにテキストあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlにテキストあり．Formatががっちり定められている</t>
+    <rPh sb="23" eb="24">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlにテキストあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロールで描画</t>
+    <rPh sb="6" eb="8">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlにテキストあり．Bug報告の分類がややこしい</t>
+    <rPh sb="15" eb="17">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1088,796 +1142,934 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599D0BD2-ADF8-4539-8AD4-17B4999EACBD}">
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.58203125" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.58203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.58203125" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2">
+        <v>1172470</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="2">
+        <v>123663</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="O3" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O4" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="O5" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12">
+        <v>227300</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12">
+        <v>89496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16">
+        <v>289070</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16">
+        <v>75907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22">
+        <v>39210</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22">
+        <v>26211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23">
+        <v>230410</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23">
+        <v>186008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24">
+        <v>255710</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24">
+        <v>75305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31">
+        <v>526870</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31">
+        <v>33866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
         <v>100</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>102</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
         <v>104</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40">
+        <v>848450</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40">
+        <v>27166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
         <v>109</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+      <c r="C42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44">
+        <v>440900</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="G44" s="2">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44">
+        <v>34133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46">
+        <v>105600</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46">
+        <v>410771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
         <v>139</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+      <c r="C51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5042532E-8BE1-4A02-820C-4FAABA695774}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{C4E65072-582D-4BCD-B285-23A9C1A5EB24}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{5A52C833-A55D-4DFB-B8B0-93BA65B78784}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{31107A1C-CB39-4ECD-953F-045A896613C6}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{EA60741F-0DEE-4D58-ADBA-2687410ADF32}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{8791597C-BAC7-4EA9-9C39-9BB4B36B4F95}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{4060EB60-CF09-49E5-BABB-08D4BC1CE775}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{4BAAA500-4B63-423E-BB62-62ACAB598D0B}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{3922F8C7-015F-43C5-ABEA-DC9FC7F63780}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{771B3A0A-A492-40E6-B6DD-1BEB00971E6D}"/>
-    <hyperlink ref="C9" r:id="rId11" xr:uid="{8902EB20-805D-456A-8150-164394A0BF62}"/>
-    <hyperlink ref="B8" r:id="rId12" xr:uid="{569C0C9F-991D-49E8-AC68-6235E43799A9}"/>
-    <hyperlink ref="B10" r:id="rId13" xr:uid="{79E3F017-D0CC-404B-BBC8-7042B04C29D5}"/>
-    <hyperlink ref="B11" r:id="rId14" xr:uid="{A90FFCF3-C19B-461F-85B9-FBB06CDCEDF4}"/>
-    <hyperlink ref="B12" r:id="rId15" xr:uid="{13CCF134-73A1-4D22-B401-054C4EE73797}"/>
-    <hyperlink ref="C12" r:id="rId16" xr:uid="{D92C4A7D-4B20-46D1-9849-120EDFCFB428}"/>
-    <hyperlink ref="B13" r:id="rId17" xr:uid="{7E239812-3856-42E8-A05B-E09AD53FC348}"/>
-    <hyperlink ref="C13" r:id="rId18" xr:uid="{98B7F2AE-C083-4637-BF58-0893947C0CA9}"/>
-    <hyperlink ref="B14" r:id="rId19" xr:uid="{B3FE07C1-61DF-4F83-80CB-938F74FFDA8B}"/>
-    <hyperlink ref="B15" r:id="rId20" xr:uid="{3D411E70-2EDE-46BB-AE43-88AF9100E2FE}"/>
-    <hyperlink ref="C15" r:id="rId21" xr:uid="{DA32BF2A-F253-4E95-B0B7-5D5FFA1401F1}"/>
-    <hyperlink ref="B16" r:id="rId22" xr:uid="{930109D6-99B9-49AC-B2D3-4A865C2E9FE8}"/>
-    <hyperlink ref="C16" r:id="rId23" xr:uid="{85C2150E-9662-4E0F-ACCE-E103E3D96C6D}"/>
-    <hyperlink ref="B17" r:id="rId24" xr:uid="{8DF93474-33FB-4554-A237-0883E522359B}"/>
-    <hyperlink ref="C17" r:id="rId25" xr:uid="{67BBFC88-B48C-4BB4-9423-2AA7AFCDA497}"/>
-    <hyperlink ref="B18" r:id="rId26" xr:uid="{A615BFB5-5193-4169-8D51-498E1396D7D6}"/>
-    <hyperlink ref="C18" r:id="rId27" xr:uid="{F6162EE3-59A9-4557-BE6E-A9BD900B6D60}"/>
-    <hyperlink ref="B19" r:id="rId28" xr:uid="{240D98DE-6BC4-42F6-A6FA-ECE4465D9783}"/>
-    <hyperlink ref="C19" r:id="rId29" xr:uid="{6412318B-E3FE-46D3-B50A-D118BFCB3AC1}"/>
-    <hyperlink ref="B20" r:id="rId30" xr:uid="{6AC965D3-E094-4459-99F8-769CF4E38939}"/>
-    <hyperlink ref="C20" r:id="rId31" xr:uid="{90990268-506C-4FFD-992D-E6835114211B}"/>
-    <hyperlink ref="B21" r:id="rId32" xr:uid="{3F3B8468-D5FB-40A0-9F6D-01C272F7FF19}"/>
-    <hyperlink ref="C21" r:id="rId33" xr:uid="{FB257F8C-E0A5-428E-BF68-B0458A6D479C}"/>
-    <hyperlink ref="B22" r:id="rId34" xr:uid="{3F0390E2-CF05-431F-9120-1B670E16353F}"/>
-    <hyperlink ref="C22" r:id="rId35" xr:uid="{B07A6252-DB86-4F79-B0BC-B58618C272B8}"/>
-    <hyperlink ref="B23" r:id="rId36" xr:uid="{069EACE0-70A8-4CF9-9CF3-B6578E4DD67F}"/>
-    <hyperlink ref="C23" r:id="rId37" xr:uid="{F51565D8-F3B1-4DA1-AFD3-4FB7B92F1BA4}"/>
-    <hyperlink ref="B24" r:id="rId38" xr:uid="{00AF6900-0435-4A02-BD04-AE9622FF9E98}"/>
-    <hyperlink ref="B25" r:id="rId39" xr:uid="{1408F996-0F5F-4A5F-BA50-838FE264853F}"/>
-    <hyperlink ref="C25" r:id="rId40" xr:uid="{5EF76CCE-3AFC-4772-BC8B-990E3A8B8E81}"/>
-    <hyperlink ref="C24" r:id="rId41" xr:uid="{69709598-8F48-4390-B521-F213EAD7955C}"/>
-    <hyperlink ref="B26" r:id="rId42" xr:uid="{1C9A21C0-1ABB-4C9E-B0FB-A7E4754314A6}"/>
-    <hyperlink ref="B27" r:id="rId43" xr:uid="{738BB7C0-8EE1-4A6F-8B2E-02DF67E5DB00}"/>
-    <hyperlink ref="B28" r:id="rId44" xr:uid="{69E8361D-3131-4DEA-B026-8F04F829C841}"/>
-    <hyperlink ref="B29" r:id="rId45" xr:uid="{876FDAD2-7384-4BF2-A998-DAC9B68163FE}"/>
-    <hyperlink ref="B30" r:id="rId46" xr:uid="{B741B75D-AF95-467A-8B96-598F00851881}"/>
-    <hyperlink ref="B31" r:id="rId47" xr:uid="{FA2C0B89-ECE2-404D-8E1F-7CD556186DDC}"/>
-    <hyperlink ref="C31" r:id="rId48" xr:uid="{C837EC7D-F875-477E-9B66-3E39CEB4FF47}"/>
-    <hyperlink ref="B32" r:id="rId49" xr:uid="{00A15075-C9AE-4524-B28B-6FE488E0FFCB}"/>
-    <hyperlink ref="B33" r:id="rId50" xr:uid="{B2B010EA-0D1D-4906-9225-C31C00B63636}"/>
-    <hyperlink ref="B34" r:id="rId51" xr:uid="{22E5879B-6EFB-40BE-874D-8726330D5BA6}"/>
-    <hyperlink ref="B35" r:id="rId52" xr:uid="{62323506-7E46-4C1E-A86C-BDD7A465C485}"/>
-    <hyperlink ref="C35" r:id="rId53" xr:uid="{ACCD1398-3394-4CD0-A42A-E563D4F5361D}"/>
-    <hyperlink ref="B36" r:id="rId54" xr:uid="{2220F66E-DD5D-48C1-960B-B523B5F78F72}"/>
-    <hyperlink ref="C36" r:id="rId55" xr:uid="{18133D3E-A2A0-4F55-9993-A52AEA502F7A}"/>
-    <hyperlink ref="B37" r:id="rId56" xr:uid="{C786A78A-8EC1-45CE-BABA-6D76EA4E2313}"/>
-    <hyperlink ref="B38" r:id="rId57" xr:uid="{9E72C289-7C22-44B9-88F7-A64A66433015}"/>
-    <hyperlink ref="B39" r:id="rId58" xr:uid="{B04ABA8E-8673-464A-BDC4-13DB88D2F866}"/>
-    <hyperlink ref="B40" r:id="rId59" xr:uid="{DF946824-3CA1-45C1-972C-E6E5A9DBD447}"/>
-    <hyperlink ref="C40" r:id="rId60" xr:uid="{550AB80A-91AD-49ED-96C3-8054FE6AACFF}"/>
-    <hyperlink ref="B41" r:id="rId61" xr:uid="{6528AD07-4BC6-4A91-8694-D624C01C69A9}"/>
-    <hyperlink ref="B42" r:id="rId62" xr:uid="{6D867E1C-A15E-40A0-9C07-B85C1727AEA5}"/>
-    <hyperlink ref="C42" r:id="rId63" xr:uid="{26A2D16D-9D72-48E2-BCE2-F65A867CE1A3}"/>
-    <hyperlink ref="C43" r:id="rId64" xr:uid="{28D67367-4B05-4422-A9C5-5EFB3D775CDC}"/>
-    <hyperlink ref="B43" r:id="rId65" xr:uid="{D0C77AC3-1B50-4B59-992B-C3287D7D6DE7}"/>
-    <hyperlink ref="B44" r:id="rId66" xr:uid="{7931EC3C-7FE4-4470-9147-1B15D25B5C1B}"/>
-    <hyperlink ref="C44" r:id="rId67" xr:uid="{D5D52ED2-A1F9-4662-8B4D-C5A76EC38B74}"/>
-    <hyperlink ref="B45" r:id="rId68" xr:uid="{6E956618-1DFC-4C19-8D0B-129D79454FD0}"/>
-    <hyperlink ref="C45" r:id="rId69" xr:uid="{EC2DDD4A-D9CB-4280-B739-1AF3E4AB726A}"/>
-    <hyperlink ref="B46" r:id="rId70" xr:uid="{88EA2300-E26D-4CE9-BA3B-C000984D2964}"/>
-    <hyperlink ref="C46" r:id="rId71" xr:uid="{360D1140-C18E-4FDD-9342-F3B83B63980E}"/>
-    <hyperlink ref="B47" r:id="rId72" xr:uid="{33DCF530-ED0D-4FA4-9D75-42E304391F0E}"/>
-    <hyperlink ref="B48" r:id="rId73" xr:uid="{2D92F4F9-63AF-40D8-8BED-D4782A39358C}"/>
-    <hyperlink ref="C48" r:id="rId74" xr:uid="{3456FD7C-384E-4774-824F-9CC68FAD4D7B}"/>
-    <hyperlink ref="B49" r:id="rId75" xr:uid="{24DC64A4-1325-4F9E-AB71-9023DD2B432F}"/>
-    <hyperlink ref="C49" r:id="rId76" xr:uid="{0D655BB7-A8E4-4102-9CC3-BCBBC5A37744}"/>
-    <hyperlink ref="B50" r:id="rId77" xr:uid="{91B11523-77CF-4B00-9096-A003C9FCE91C}"/>
-    <hyperlink ref="B51" r:id="rId78" xr:uid="{E3B241A3-7518-4677-A375-118F8F022D3B}"/>
-    <hyperlink ref="C51" r:id="rId79" xr:uid="{25D65AEB-008C-42EC-87ED-D5FEB5329643}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId9"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="D9" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="C10" r:id="rId13"/>
+    <hyperlink ref="C11" r:id="rId14"/>
+    <hyperlink ref="C12" r:id="rId15"/>
+    <hyperlink ref="D12" r:id="rId16"/>
+    <hyperlink ref="C13" r:id="rId17"/>
+    <hyperlink ref="D13" r:id="rId18"/>
+    <hyperlink ref="C14" r:id="rId19"/>
+    <hyperlink ref="C15" r:id="rId20"/>
+    <hyperlink ref="D15" r:id="rId21"/>
+    <hyperlink ref="C16" r:id="rId22"/>
+    <hyperlink ref="D16" r:id="rId23"/>
+    <hyperlink ref="C17" r:id="rId24"/>
+    <hyperlink ref="D17" r:id="rId25"/>
+    <hyperlink ref="C18" r:id="rId26"/>
+    <hyperlink ref="D18" r:id="rId27"/>
+    <hyperlink ref="C19" r:id="rId28"/>
+    <hyperlink ref="D19" r:id="rId29"/>
+    <hyperlink ref="C20" r:id="rId30"/>
+    <hyperlink ref="D20" r:id="rId31"/>
+    <hyperlink ref="C21" r:id="rId32"/>
+    <hyperlink ref="D21" r:id="rId33"/>
+    <hyperlink ref="C22" r:id="rId34"/>
+    <hyperlink ref="D22" r:id="rId35"/>
+    <hyperlink ref="C23" r:id="rId36"/>
+    <hyperlink ref="D23" r:id="rId37"/>
+    <hyperlink ref="C24" r:id="rId38"/>
+    <hyperlink ref="C25" r:id="rId39"/>
+    <hyperlink ref="D25" r:id="rId40"/>
+    <hyperlink ref="D24" r:id="rId41"/>
+    <hyperlink ref="C26" r:id="rId42"/>
+    <hyperlink ref="C27" r:id="rId43"/>
+    <hyperlink ref="C28" r:id="rId44"/>
+    <hyperlink ref="C29" r:id="rId45"/>
+    <hyperlink ref="C30" r:id="rId46"/>
+    <hyperlink ref="C31" r:id="rId47"/>
+    <hyperlink ref="D31" r:id="rId48"/>
+    <hyperlink ref="C32" r:id="rId49"/>
+    <hyperlink ref="C33" r:id="rId50"/>
+    <hyperlink ref="C34" r:id="rId51"/>
+    <hyperlink ref="C35" r:id="rId52"/>
+    <hyperlink ref="D35" r:id="rId53"/>
+    <hyperlink ref="C36" r:id="rId54"/>
+    <hyperlink ref="D36" r:id="rId55"/>
+    <hyperlink ref="C37" r:id="rId56"/>
+    <hyperlink ref="C38" r:id="rId57"/>
+    <hyperlink ref="C39" r:id="rId58"/>
+    <hyperlink ref="C40" r:id="rId59"/>
+    <hyperlink ref="D40" r:id="rId60"/>
+    <hyperlink ref="C41" r:id="rId61"/>
+    <hyperlink ref="C42" r:id="rId62"/>
+    <hyperlink ref="D42" r:id="rId63"/>
+    <hyperlink ref="D43" r:id="rId64"/>
+    <hyperlink ref="C43" r:id="rId65"/>
+    <hyperlink ref="C44" r:id="rId66"/>
+    <hyperlink ref="D44" r:id="rId67"/>
+    <hyperlink ref="C45" r:id="rId68"/>
+    <hyperlink ref="D45" r:id="rId69"/>
+    <hyperlink ref="C46" r:id="rId70"/>
+    <hyperlink ref="D46" r:id="rId71"/>
+    <hyperlink ref="C47" r:id="rId72"/>
+    <hyperlink ref="C48" r:id="rId73"/>
+    <hyperlink ref="D48" r:id="rId74"/>
+    <hyperlink ref="C49" r:id="rId75"/>
+    <hyperlink ref="D49" r:id="rId76"/>
+    <hyperlink ref="C50" r:id="rId77"/>
+    <hyperlink ref="C51" r:id="rId78"/>
+    <hyperlink ref="D51" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId80"/>
